--- a/src/main/resources/testController/controller.xlsx
+++ b/src/main/resources/testController/controller.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Runmode</t>
   </si>
   <si>
-    <t xml:space="preserve">TestDataFileName</t>
+    <t xml:space="preserve">Endpoint</t>
   </si>
   <si>
     <t xml:space="preserve">TC001</t>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">api_data</t>
+    <t xml:space="preserve">/public/v2/users</t>
   </si>
   <si>
     <t xml:space="preserve">TC002</t>
@@ -144,7 +144,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -155,6 +155,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -237,7 +245,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -260,7 +268,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -274,7 +282,7 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -288,7 +296,7 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -302,7 +310,7 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -316,7 +324,7 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
